--- a/Lista de precios 2022 actualizados 2.xlsx
+++ b/Lista de precios 2022 actualizados 2.xlsx
@@ -2100,7 +2100,7 @@
   <dimension ref="A1:H332"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B302" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
       <selection pane="bottomRight" activeCell="E166" sqref="E166"/>
